--- a/data/DATABASE.xlsx
+++ b/data/DATABASE.xlsx
@@ -81,6 +81,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -252,17 +253,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J31" activeCellId="0" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="10.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="10.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="13.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="7.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="6.81"/>
@@ -312,7 +313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>7</v>
       </c>
@@ -329,7 +330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>2.9</v>
       </c>
@@ -346,7 +347,7 @@
         <v>155.57</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>0.07</v>
       </c>
@@ -360,7 +361,7 @@
         <v>87.1</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>0.36</v>
       </c>
@@ -377,7 +378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>1.49</v>
       </c>
@@ -394,7 +395,7 @@
         <v>517.68</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>1.66</v>
       </c>
@@ -411,7 +412,7 @@
         <v>155.57</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>0.11</v>
       </c>
@@ -428,7 +429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>0.53</v>
       </c>
@@ -445,7 +446,7 @@
         <v>155.57</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>0.14</v>
       </c>
@@ -462,7 +463,7 @@
         <v>87.1</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>0.22</v>
       </c>
@@ -479,7 +480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>0.07</v>
       </c>
@@ -499,7 +500,7 @@
         <v>87.1</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="n">
         <v>0.29</v>
       </c>
@@ -519,7 +520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>0.3</v>
       </c>
@@ -539,7 +540,7 @@
         <v>155.57</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <v>0.11</v>
       </c>
@@ -559,7 +560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <v>0.01</v>
       </c>
@@ -579,7 +580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
         <v>0.04</v>
       </c>
@@ -599,7 +600,7 @@
         <v>155.57</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <v>0.04</v>
       </c>
@@ -619,7 +620,7 @@
         <v>517.68</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
         <v>0.13</v>
       </c>
@@ -639,7 +640,7 @@
         <v>155.57</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
         <v>0.02</v>
       </c>
@@ -659,7 +660,7 @@
         <v>517.68</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
         <v>0.13</v>
       </c>
@@ -679,7 +680,7 @@
         <v>155.57</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
         <v>0.1</v>
       </c>
@@ -699,7 +700,7 @@
         <v>87.1</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
         <v>0.11</v>
       </c>
@@ -719,7 +720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
         <v>0.03</v>
       </c>
@@ -739,7 +740,7 @@
         <v>155.57</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
         <v>0.04</v>
       </c>
@@ -759,7 +760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
         <v>0.01</v>
       </c>
@@ -779,7 +780,7 @@
         <v>155.57</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
         <v>0.03</v>
       </c>
@@ -799,7 +800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="n">
         <v>0.04</v>
       </c>
@@ -819,7 +820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="n">
         <v>0.12</v>
       </c>
@@ -839,7 +840,7 @@
         <v>4459.9</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="n">
         <v>0.12</v>
       </c>
@@ -859,7 +860,7 @@
         <v>4055</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="n">
         <v>0.48</v>
       </c>
@@ -879,7 +880,7 @@
         <v>3739.6</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="n">
         <v>0.26</v>
       </c>
@@ -899,7 +900,7 @@
         <v>3632.9</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="n">
         <v>0.08</v>
       </c>
@@ -919,7 +920,7 @@
         <v>3283.6</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="n">
         <v>0.04</v>
       </c>
@@ -939,7 +940,7 @@
         <v>3237</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="n">
         <v>0.46</v>
       </c>
@@ -959,7 +960,7 @@
         <v>2696.3</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="n">
         <v>0.36</v>
       </c>
@@ -979,7 +980,7 @@
         <v>2353</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="n">
         <v>1.7</v>
       </c>
@@ -996,7 +997,7 @@
         <v>1324.01</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="n">
         <v>6.5</v>
       </c>
@@ -1013,7 +1014,7 @@
         <v>1001.1</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="n">
         <v>4.1</v>
       </c>
@@ -1033,7 +1034,7 @@
         <v>517.68</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="n">
         <v>1.5</v>
       </c>
@@ -1050,7 +1051,7 @@
         <v>155.57</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="n">
         <v>86</v>
       </c>
@@ -1067,126 +1068,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B43" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C43" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="D43" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="E43" s="1" t="n">
-        <v>155.57</v>
-      </c>
-      <c r="F43" s="1" t="n">
-        <v>87.1</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B44" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C44" s="1" t="n">
-        <v>805.8</v>
-      </c>
-      <c r="D44" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E44" s="1" t="n">
-        <v>1324.01</v>
-      </c>
-      <c r="F44" s="1" t="n">
-        <v>517.68</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B45" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C45" s="1" t="n">
-        <v>2178.18</v>
-      </c>
-      <c r="D45" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E45" s="1" t="n">
-        <v>2696.3</v>
-      </c>
-      <c r="F45" s="1" t="n">
-        <v>517.68</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B46" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C46" s="5" t="n">
-        <v>1371.3</v>
-      </c>
-      <c r="D46" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E46" s="1" t="n">
-        <v>2696.3</v>
-      </c>
-      <c r="F46" s="1" t="n">
-        <v>1324.01</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B47" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C47" s="1" t="n">
-        <v>2632.5</v>
-      </c>
-      <c r="D47" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E47" s="1" t="n">
-        <v>3632.9</v>
-      </c>
-      <c r="F47" s="1" t="n">
-        <v>1001.1</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B48" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C48" s="1" t="n">
-        <v>454.6</v>
-      </c>
-      <c r="D48" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E48" s="1" t="n">
-        <v>3739.6</v>
-      </c>
-      <c r="F48" s="1" t="n">
-        <v>3283.6</v>
-      </c>
-    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/data/DATABASE.xlsx
+++ b/data/DATABASE.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="transitions" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
   <si>
     <t xml:space="preserve">I</t>
   </si>
@@ -255,7 +255,7 @@
   </sheetPr>
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="J31" activeCellId="0" sqref="J31"/>
     </sheetView>
   </sheetViews>
@@ -263,7 +263,7 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="10.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="10.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="13.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="7.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="6.81"/>
@@ -1092,8 +1092,8 @@
   </sheetPr>
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B24" activeCellId="0" sqref="B24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1164,9 +1164,6 @@
       <c r="A6" s="1" t="n">
         <v>1001.1</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
@@ -1183,72 +1180,45 @@
       <c r="A8" s="1" t="n">
         <v>2353</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>2696.3</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>3237</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>3283.6</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>3632.9</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>3739.6</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>4055</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>4331</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <v>4459.9</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
